--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Vegfb-Nrp1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.625493333333333</v>
+        <v>1.038291333333333</v>
       </c>
       <c r="H2">
-        <v>4.87648</v>
+        <v>3.114874</v>
       </c>
       <c r="I2">
-        <v>0.1468796758507528</v>
+        <v>0.09907705749147798</v>
       </c>
       <c r="J2">
-        <v>0.1468796758507528</v>
+        <v>0.09907705749147799</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N2">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P2">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q2">
-        <v>86.00534587480888</v>
+        <v>128.0012225024664</v>
       </c>
       <c r="R2">
-        <v>774.0481128732799</v>
+        <v>1152.011002522198</v>
       </c>
       <c r="S2">
-        <v>0.06112273487872454</v>
+        <v>0.06183967922145053</v>
       </c>
       <c r="T2">
-        <v>0.06112273487872456</v>
+        <v>0.06183967922145053</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.625493333333333</v>
+        <v>1.038291333333333</v>
       </c>
       <c r="H3">
-        <v>4.87648</v>
+        <v>3.114874</v>
       </c>
       <c r="I3">
-        <v>0.1468796758507528</v>
+        <v>0.09907705749147798</v>
       </c>
       <c r="J3">
-        <v>0.1468796758507528</v>
+        <v>0.09907705749147799</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>141.780175</v>
       </c>
       <c r="O3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P3">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q3">
-        <v>76.82090975377776</v>
+        <v>49.06970898032777</v>
       </c>
       <c r="R3">
-        <v>691.3881877839999</v>
+        <v>441.6273808229499</v>
       </c>
       <c r="S3">
-        <v>0.05459549115536903</v>
+        <v>0.02370645376277503</v>
       </c>
       <c r="T3">
-        <v>0.05459549115536904</v>
+        <v>0.02370645376277503</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.625493333333333</v>
+        <v>1.038291333333333</v>
       </c>
       <c r="H4">
-        <v>4.87648</v>
+        <v>3.114874</v>
       </c>
       <c r="I4">
-        <v>0.1468796758507528</v>
+        <v>0.09907705749147798</v>
       </c>
       <c r="J4">
-        <v>0.1468796758507528</v>
+        <v>0.09907705749147799</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>80.923822</v>
       </c>
       <c r="O4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P4">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q4">
-        <v>43.84704438961778</v>
+        <v>28.00750101426978</v>
       </c>
       <c r="R4">
-        <v>394.62339950656</v>
+        <v>252.067509128428</v>
       </c>
       <c r="S4">
-        <v>0.0311614498166592</v>
+        <v>0.01353092450725242</v>
       </c>
       <c r="T4">
-        <v>0.0311614498166592</v>
+        <v>0.01353092450725242</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>15.12358</v>
       </c>
       <c r="I5">
-        <v>0.4555225343081337</v>
+        <v>0.4810466828311408</v>
       </c>
       <c r="J5">
-        <v>0.4555225343081337</v>
+        <v>0.4810466828311408</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N5">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P5">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q5">
-        <v>266.7310701090422</v>
+        <v>621.4815522598511</v>
       </c>
       <c r="R5">
-        <v>2400.57963098138</v>
+        <v>5593.33397033866</v>
       </c>
       <c r="S5">
-        <v>0.1895618500962131</v>
+        <v>0.3002488498346787</v>
       </c>
       <c r="T5">
-        <v>0.1895618500962131</v>
+        <v>0.3002488498346786</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>15.12358</v>
       </c>
       <c r="I6">
-        <v>0.4555225343081337</v>
+        <v>0.4810466828311408</v>
       </c>
       <c r="J6">
-        <v>0.4555225343081337</v>
+        <v>0.4810466828311408</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>141.780175</v>
       </c>
       <c r="O6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P6">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q6">
         <v>238.2470910029444</v>
@@ -818,10 +818,10 @@
         <v>2144.2238190265</v>
       </c>
       <c r="S6">
-        <v>0.1693187049116404</v>
+        <v>0.1151014294631594</v>
       </c>
       <c r="T6">
-        <v>0.1693187049116404</v>
+        <v>0.1151014294631594</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>15.12358</v>
       </c>
       <c r="I7">
-        <v>0.4555225343081337</v>
+        <v>0.4810466828311408</v>
       </c>
       <c r="J7">
-        <v>0.4555225343081337</v>
+        <v>0.4810466828311408</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>80.923822</v>
       </c>
       <c r="O7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P7">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q7">
         <v>135.9842106580844</v>
@@ -880,10 +880,10 @@
         <v>1223.85789592276</v>
       </c>
       <c r="S7">
-        <v>0.09664197930028026</v>
+        <v>0.06569640353330268</v>
       </c>
       <c r="T7">
-        <v>0.09664197930028028</v>
+        <v>0.06569640353330267</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>13.200449</v>
       </c>
       <c r="I8">
-        <v>0.3975977898411136</v>
+        <v>0.4198762596773812</v>
       </c>
       <c r="J8">
-        <v>0.3975977898411136</v>
+        <v>0.4198762596773812</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>52.91030366666666</v>
+        <v>123.2806423333333</v>
       </c>
       <c r="N8">
-        <v>158.730911</v>
+        <v>369.841927</v>
       </c>
       <c r="O8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367528</v>
       </c>
       <c r="P8">
-        <v>0.4161415425564564</v>
+        <v>0.6241574062367526</v>
       </c>
       <c r="Q8">
-        <v>232.8132550421154</v>
+        <v>542.4532772694693</v>
       </c>
       <c r="R8">
-        <v>2095.319295379039</v>
+        <v>4882.079495425222</v>
       </c>
       <c r="S8">
-        <v>0.1654569575815188</v>
+        <v>0.2620688771806235</v>
       </c>
       <c r="T8">
-        <v>0.1654569575815188</v>
+        <v>0.2620688771806234</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>13.200449</v>
       </c>
       <c r="I9">
-        <v>0.3975977898411136</v>
+        <v>0.4198762596773812</v>
       </c>
       <c r="J9">
-        <v>0.3975977898411136</v>
+        <v>0.4198762596773812</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>141.780175</v>
       </c>
       <c r="O9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301323</v>
       </c>
       <c r="P9">
-        <v>0.3717021489810786</v>
+        <v>0.2392728888301322</v>
       </c>
       <c r="Q9">
         <v>207.9513299220638</v>
@@ -1004,10 +1004,10 @@
         <v>1871.561969298575</v>
       </c>
       <c r="S9">
-        <v>0.1477879529140692</v>
+        <v>0.1004650056041978</v>
       </c>
       <c r="T9">
-        <v>0.1477879529140692</v>
+        <v>0.1004650056041978</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>13.200449</v>
       </c>
       <c r="I10">
-        <v>0.3975977898411136</v>
+        <v>0.4198762596773812</v>
       </c>
       <c r="J10">
-        <v>0.3975977898411136</v>
+        <v>0.4198762596773812</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>80.923822</v>
       </c>
       <c r="O10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="P10">
-        <v>0.2121563084624651</v>
+        <v>0.136569704933115</v>
       </c>
       <c r="Q10">
         <v>118.6923094662309</v>
@@ -1066,10 +1066,10 @@
         <v>1068.230785196078</v>
       </c>
       <c r="S10">
-        <v>0.08435287934552568</v>
+        <v>0.05734237689255994</v>
       </c>
       <c r="T10">
-        <v>0.08435287934552568</v>
+        <v>0.05734237689255993</v>
       </c>
     </row>
   </sheetData>
